--- a/APPLICATION/Templates/Upload subs.xlsx
+++ b/APPLICATION/Templates/Upload subs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhattnagar\Desktop\Development\BOB_SDA\APPLICATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhattnagar\Desktop\Development\BOB_SDA\APPLICATION\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B8C349-F698-43EC-AFC0-F8042C2C22EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED7184-B1AB-43A5-B325-C03E3D0A0616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4992" yWindow="4992" windowWidth="34560" windowHeight="18744" xr2:uid="{EC1D1461-7341-46B6-81E7-3042759947FC}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,6 +701,9 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
       <c r="C12" s="1">
         <v>45072</v>
       </c>
